--- a/medicine/Premiers secours et secourisme/Ambulance/Ambulance.xlsx
+++ b/medicine/Premiers secours et secourisme/Ambulance/Ambulance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ambulance est un véhicule automobile spécialement adapté et aménagé pour permettre le transport des personnes malades, blessées ou parturientes (femme sur le point d'accoucher) vers un établissement hospitalier (public ou privé) — hôpital ou clinique — ou une unité de soins spécialisée (par exemple : soins de suite ou rééducation et réadaptation fonctionnelle).
 Une ambulance dispose généralement du matériel nécessaire à la surveillance des constantes vitales et aux premiers soins des blessés.
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1792, le médecin français Dominique-Jean Larrey crée le concept de chirurgiens de l’avant, de triage des blessés et d’ambulances volantes[1].
-Durant la Première Guerre mondiale, une ambulance est un poste de secours avancé au plus près du front et capable d'accueillir des soldats blessés pour les premiers soins avant leur évacuation vers un hôpital militaire de campagne[2]. Par extension, on utilise à cette époque le terme d’« ambulance » pour le véhicule tracté par un attelage et chargé du transport de ces blessés du poste d'ambulance vers l'arrière, puis celui d’« ambulance automobile » lorsque se répandent les véhicules à moteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1792, le médecin français Dominique-Jean Larrey crée le concept de chirurgiens de l’avant, de triage des blessés et d’ambulances volantes.
+Durant la Première Guerre mondiale, une ambulance est un poste de secours avancé au plus près du front et capable d'accueillir des soldats blessés pour les premiers soins avant leur évacuation vers un hôpital militaire de campagne. Par extension, on utilise à cette époque le terme d’« ambulance » pour le véhicule tracté par un attelage et chargé du transport de ces blessés du poste d'ambulance vers l'arrière, puis celui d’« ambulance automobile » lorsque se répandent les véhicules à moteur.
 Par la suite le terme ne désignera plus qu'un véhicule destiné au transport des blessés, malades ou parturientes.
-Plus récemment, on a aussi utilisé le terme d’« ambulances vertes » pour désigner des laboratoires mobiles d'analyse susceptibles d’être dépêchées sur le lieu d'un accident ou d'une pollution ou chez un particulier pour faire un diagnostic environnemental de la situation et éventuellement initier de premières actions[4].
+Plus récemment, on a aussi utilisé le terme d’« ambulances vertes » pour désigner des laboratoires mobiles d'analyse susceptibles d’être dépêchées sur le lieu d'un accident ou d'une pollution ou chez un particulier pour faire un diagnostic environnemental de la situation et éventuellement initier de premières actions.
 			Une ambulance de la Première Guerre mondiale
 			Une ambulance hippomobile de l’armée française en 1877.
 			Autobus parisien de la CGO, réquisitionné et transformé en ambulance, durant la première Guerre mondiale.
@@ -553,7 +567,9 @@
           <t>Mesures d'hygiène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ambulances servent au transport de malades et de blessés. Ce sont des personnes affaiblies qui sont susceptibles de contracter des maladies plus facilement. L'infection peut provenir des proches et de l'entourage familial ou des lieux dans lesquels la personne a séjourné.
 Les malades peuvent contaminer les ambulanciers. Ou encore, les ambulanciers ou le matériel peuvent transporter les germes d'un patient vers un autre patient. Le problème est similaire à l'infection nosocomiale, bien qu'étant légalement considéré comme distinct, car on ne peut pas maîtriser l'environnement dans lequel on va chercher la personne.
@@ -615,9 +631,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgique
-France
-En France, les véhicules de secours sont réunis sous plusieurs catégories (A1, A2, C, D) et types (A, B, C) et sous divers sigles.
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les véhicules de secours sont réunis sous plusieurs catégories (A1, A2, C, D) et types (A, B, C) et sous divers sigles.
 La norme NF EN 1789 de décembre 1999 relative aux « véhicules de transports sanitaires et leurs équipements » (ICS : 11.160 ; 43.160) distingue six types de véhicules adaptés au transport sanitaire :
 Catégorie A1 : adaptée au transport d'un patient unique ;
 Catégorie A2 : adaptée au transport d'un ou plusieurs patients sur un (des) brancard(s) et/ou chaise(s) portoir(s).
@@ -633,13 +653,13 @@
 Les ambulances du Service d'Aide Médicale Urgente (SAMU) ou du Service Mobile d'Urgence et de Réanimation (SMUR) qui sont des ambulances complètement médicalisées car la présence d'un médecin et d'un infirmier y est obligatoire. Elles sont aussi appelées des Unités Mobiles Hospitalières (UMH). (Véhicule de Catégorie A1 Type C).
 Les ambulances de réanimation (ambulance militaire) reconnaissables à leur croix rouge sur un fond blanc sans l'appellation « CROIX-ROUGE ». (Véhicule de Catégorie A1 Type B).
 Les autres types d'ambulance sont des véhicules de soutien non médicalisés et qui ne peuvent pas l'être :
-Ambulance de Secours et de Soins d'Urgence (ASSU). Il s'agit d'entreprises privées titulaires d'un agrément délivré par l'ARS[5] pour le transport sanitaire pour l'urgence et pour le transport sur prescription médicale. Les ASSU sont des véhicules où l'équipage peut tenir debout dans la cellule sanitaire [6]. (Véhicule de Catégorie C Type A ou de Catégorie D).
+Ambulance de Secours et de Soins d'Urgence (ASSU). Il s'agit d'entreprises privées titulaires d'un agrément délivré par l'ARS pour le transport sanitaire pour l'urgence et pour le transport sur prescription médicale. Les ASSU sont des véhicules où l'équipage peut tenir debout dans la cellule sanitaire . (Véhicule de Catégorie C Type A ou de Catégorie D).
 Ambulance non-médicalisée de type ambulance privée appelé aussi Véhicule Sanitaire Léger (VSL), il s'agit d'un véhicule ne permettant pas le transport de victime. Il s'agit d'un transport assis de malade type taxi. (Véhicule de Catégorie D)
 Certains véhicules font exception :
 Les véhicules de transport du personnel hospitalier du SAMU ou du SMUR (aussi appelé UMH). (Véhicule n'ayant pas de catégorie).
 Les véhicules « premiers secours relevage » (PSR) et « premiers secours évacuation » (PSE) de la Brigade de sapeurs-pompiers de Paris, principalement pour du soutien aux populations et du transport. (Véhicule de Catégorie A1 Type B)
 Enfin, il existe des véhicules qui ne sont plus en circulation : les véhicules de secours aux asphyxiés et aux blessés (VSAB) des sapeurs-pompiers.
-L'utilisation des sirènes et des gyrophares est strictement réglementée. Les véhicules peuvent bénéficier de deux autorisations pour l'utilisation d'un avertisseur sonore à deux tons, deux temps (« fa-la » d'une demi seconde chacune) [7] : 
+L'utilisation des sirènes et des gyrophares est strictement réglementée. Les véhicules peuvent bénéficier de deux autorisations pour l'utilisation d'un avertisseur sonore à deux tons, deux temps (« fa-la » d'une demi seconde chacune)  : 
 Utilisation de la sirène 2 tons (Pin-Pon) et des gyrophares bleus. Utilisée par le SAMU/SMUR et sur autorisation du SAMU/SMUR ou de la préfecture, elle correspond à des urgences absolues et vitales. Cela permet de passer les feux tricolores, les cédez-le-passage et les stops ainsi que commettre certaines infractions au code de la route.
 Utilisation de la sirène 3 tons (Pin-Pon-Pin) et des gyrophares bleu. Utilisé lorsqu'il n'y a pas d'autorisation SAMU/SMUR ni par la préfecture, cela permet d'accélérer et de commettre certaines infractions au code de la route, mais ne permet pas de passer les feux tricolores, les céder le passage et les stop.
 Une exception existante est l'utilisation exclusivement des gyrophares bleu. Cela permet d'indiquer le transport d'un patient ou d'une victime, mais ne permet aucune infraction au code de la route.
@@ -654,8 +674,43 @@
 			UMH du Samu de Paris
 			Samu 59 de Lille
 			Ambulances
-Suisse
-En Suisse, de par le fédéralisme, l'organisation des services d'ambulance peut être différent selon le  canton. Celle de Genève est représentative des services d'urgences médicales en Suisse. À Genève, il y a deux sortes d'ambulances :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ambulance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambulance</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Par pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, de par le fédéralisme, l'organisation des services d'ambulance peut être différent selon le  canton. Celle de Genève est représentative des services d'urgences médicales en Suisse. À Genève, il y a deux sortes d'ambulances :
 les ambulances d'urgence, engagées par le 144 (numéro d'appel d'urgences médicales), celles-ci sont composées au minimum d'un ambulancier diplômé CRS/ES/IAS et d'un TA (Croix-Rouge Suisse). Ces ambulances font partie soit d'une entreprise privée soit d'un organisme public (comme le Service d'incendie et de secours de la ville de Genève (SIS Genève). Les ambulances d'urgence peuvent, au besoin, être renforcées par le cardiomobile, l'équivalent du SMUR.
 les ambulances de transferts ou rapatriements, qui sont partenaires des hôpitaux pour des transferts intra-hospitaliers ou de la Rega entre autres pour des rapatriements de blessés ou malades. Ces ambulances peuvent être composées de TA (techniciens ambulanciers), d'équipes médicales ou d'ambulanciers CRS/ES/IAS.
 La section sanitaire des sapeurs-pompiers de l'aéroport de Genève (SSA), a été finalisée le 1er avril 2003. Elle est directement rattachée à la brigade sanitaire cantonale regroupant le cardiomobile et l'hélicoptère des HUG (Rega). Elle se compose de dix-neuf ambulanciers IAS/CRS regroupés en six groupes de trois, qui se relaient pour assurer deux ambulances de jour et une de nuit, 24h/24 sur la totalité du canton de Genève et la partie Terre Sainte du canton de Vaud en 3e échelon. Ils sont engagés par les 144 de ces deux cantons.
@@ -672,31 +727,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ambulance</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ambulance</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Autres pays</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
